--- a/Revised/table5.xlsx
+++ b/Revised/table5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Millennial_CA\17_JTRG_multimodal\JTRG_Multimodal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Millennial_CA\17_JTRG_multimodal\JTRG_Multimodal\Revised\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,12 +15,12 @@
     <sheet name="rawdata" sheetId="1" r:id="rId1"/>
     <sheet name="table5" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="144">
   <si>
     <t>Central Valley</t>
   </si>
@@ -444,6 +444,15 @@
   <si>
     <t>Weighted 
 count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Significance test at p=0.05 level. Weighted chi-square is conducted for each variable. "IM-DM" indicates independent millennials differ significantly from dependent millennails, "IM-GX" indicates independent millennials differ significantly from Generation Xers, and "DM-GX" indicates dependent millennials differ significantly from Generation Xers. </t>
+  </si>
+  <si>
+    <t>IM-GX, DM-GX</t>
+  </si>
+  <si>
+    <t>IM-GX</t>
   </si>
 </sst>
 </file>
@@ -454,7 +463,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -599,6 +608,24 @@
       <i/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -945,7 +972,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -959,32 +986,54 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="2"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1032,7 +1081,28 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3315,74 +3385,76 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="14" customWidth="1"/>
-    <col min="3" max="11" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="8" customWidth="1"/>
+    <col min="3" max="11" width="12.7109375" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C1" s="8" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C1" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8" t="s">
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="7"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -3393,11 +3465,11 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="9">
         <v>689.53700000000003</v>
       </c>
       <c r="C4" s="6">
@@ -3428,11 +3500,11 @@
         <v>0.16927</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="9">
         <v>339.697</v>
       </c>
       <c r="C5" s="6">
@@ -3463,11 +3535,11 @@
         <v>0.19292000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="9">
         <v>945.76700000000005</v>
       </c>
       <c r="C6" s="6">
@@ -3498,47 +3570,36 @@
         <v>8.3599999999999994E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="C7" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="9">
         <v>302.202</v>
       </c>
       <c r="C9" s="6">
@@ -3569,11 +3630,11 @@
         <v>0.15484000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="9">
         <v>420.86799999999999</v>
       </c>
       <c r="C10" s="6">
@@ -3604,11 +3665,11 @@
         <v>0.13472000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="9">
         <v>42.860999999999997</v>
       </c>
       <c r="C11" s="6">
@@ -3639,11 +3700,11 @@
         <v>0.1018</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="9">
         <v>110.05</v>
       </c>
       <c r="C12" s="6">
@@ -3674,11 +3735,11 @@
         <v>7.5399999999999995E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="9">
         <v>175.66399999999999</v>
       </c>
       <c r="C13" s="6">
@@ -3709,11 +3770,11 @@
         <v>0.12698999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="9">
         <v>923.35400000000004</v>
       </c>
       <c r="C14" s="6">
@@ -3744,30 +3805,1017 @@
         <v>0.13683999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:11" s="16" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+    </row>
+    <row r="18" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="12">
+        <v>689.53700000000003</v>
+      </c>
+      <c r="C20" s="13">
+        <v>0.69900000000000007</v>
+      </c>
+      <c r="D20" s="13">
+        <v>0.125</v>
+      </c>
+      <c r="E20" s="13">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0.20199999999999999</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0.113</v>
+      </c>
+      <c r="I20" s="13">
+        <v>0.67099999999999993</v>
+      </c>
+      <c r="J20" s="13">
+        <v>0.16</v>
+      </c>
+      <c r="K20" s="13">
+        <v>0.16899999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="12">
+        <v>339.697</v>
+      </c>
+      <c r="C21" s="13">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="D21" s="13">
+        <v>0.12300000000000001</v>
+      </c>
+      <c r="E21" s="13">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F21" s="13">
+        <v>0.68900000000000006</v>
+      </c>
+      <c r="G21" s="13">
+        <v>0.16899999999999998</v>
+      </c>
+      <c r="H21" s="13">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="I21" s="13">
+        <v>0.622</v>
+      </c>
+      <c r="J21" s="13">
+        <v>0.185</v>
+      </c>
+      <c r="K21" s="13">
+        <v>0.193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="12">
+        <v>945.76700000000005</v>
+      </c>
+      <c r="C22" s="13">
+        <v>0.83</v>
+      </c>
+      <c r="D22" s="13">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="E22" s="13">
+        <v>0.106</v>
+      </c>
+      <c r="F22" s="13">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="G22" s="13">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="H22" s="13">
+        <v>0.113</v>
+      </c>
+      <c r="I22" s="13">
+        <v>0.81700000000000006</v>
+      </c>
+      <c r="J22" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="K22" s="13">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="12">
+        <v>302.202</v>
+      </c>
+      <c r="C25" s="13">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="D25" s="13">
+        <v>9.3000000000000013E-2</v>
+      </c>
+      <c r="E25" s="13">
+        <v>0.11199999999999999</v>
+      </c>
+      <c r="F25" s="13">
+        <v>0.747</v>
+      </c>
+      <c r="G25" s="13">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="H25" s="13">
+        <v>0.11199999999999999</v>
+      </c>
+      <c r="I25" s="13">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="J25" s="13">
+        <v>0.10400000000000001</v>
+      </c>
+      <c r="K25" s="13">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="12">
+        <v>420.86799999999999</v>
+      </c>
+      <c r="C26" s="13">
+        <v>0.67799999999999994</v>
+      </c>
+      <c r="D26" s="13">
+        <v>0.113</v>
+      </c>
+      <c r="E26" s="13">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="F26" s="13">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="G26" s="13">
+        <v>0.214</v>
+      </c>
+      <c r="H26" s="13">
+        <v>0.13</v>
+      </c>
+      <c r="I26" s="13">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="J26" s="13">
+        <v>0.218</v>
+      </c>
+      <c r="K26" s="13">
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="12">
+        <v>42.860999999999997</v>
+      </c>
+      <c r="C27" s="13">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="D27" s="13">
+        <v>0.13699999999999998</v>
+      </c>
+      <c r="E27" s="13">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="F27" s="13">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="G27" s="13">
+        <v>0.191</v>
+      </c>
+      <c r="H27" s="13">
+        <v>0.161</v>
+      </c>
+      <c r="I27" s="13">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="J27" s="13">
+        <v>0.157</v>
+      </c>
+      <c r="K27" s="13">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="12">
+        <v>110.05</v>
+      </c>
+      <c r="C28" s="13">
+        <v>0.80799999999999994</v>
+      </c>
+      <c r="D28" s="13">
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="E28" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="F28" s="13">
+        <v>0.72</v>
+      </c>
+      <c r="G28" s="13">
+        <v>0.152</v>
+      </c>
+      <c r="H28" s="13">
+        <v>0.128</v>
+      </c>
+      <c r="I28" s="13">
+        <v>0.81099999999999994</v>
+      </c>
+      <c r="J28" s="13">
+        <v>0.114</v>
+      </c>
+      <c r="K28" s="13">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="12">
+        <v>175.66399999999999</v>
+      </c>
+      <c r="C29" s="13">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="D29" s="13">
+        <v>0.113</v>
+      </c>
+      <c r="E29" s="13">
+        <v>0.129</v>
+      </c>
+      <c r="F29" s="13">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="G29" s="13">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="H29" s="13">
+        <v>0.106</v>
+      </c>
+      <c r="I29" s="13">
+        <v>0.77599999999999991</v>
+      </c>
+      <c r="J29" s="13">
+        <v>9.6999999999999989E-2</v>
+      </c>
+      <c r="K29" s="13">
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="12">
+        <v>923.35400000000004</v>
+      </c>
+      <c r="C30" s="13">
+        <v>0.7659999999999999</v>
+      </c>
+      <c r="D30" s="13">
+        <v>8.900000000000001E-2</v>
+      </c>
+      <c r="E30" s="13">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="F30" s="13">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="G30" s="13">
+        <v>0.156</v>
+      </c>
+      <c r="H30" s="13">
+        <v>0.113</v>
+      </c>
+      <c r="I30" s="13">
+        <v>0.746</v>
+      </c>
+      <c r="J30" s="13">
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="K30" s="13">
+        <v>0.13699999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="17" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+    </row>
+    <row r="35" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" s="12">
+        <v>689.53700000000003</v>
+      </c>
+      <c r="C37" s="13">
+        <f t="shared" ref="C37:K37" si="0">C20-C4</f>
+        <v>4.4770000000000088E-2</v>
+      </c>
+      <c r="D37" s="13">
+        <f t="shared" si="0"/>
+        <v>-7.7190000000000009E-2</v>
+      </c>
+      <c r="E37" s="13">
+        <f t="shared" si="0"/>
+        <v>3.1419999999999976E-2</v>
+      </c>
+      <c r="F37" s="13">
+        <f t="shared" si="0"/>
+        <v>0.13458000000000003</v>
+      </c>
+      <c r="G37" s="13">
+        <f t="shared" si="0"/>
+        <v>-0.17273999999999998</v>
+      </c>
+      <c r="H37" s="13">
+        <f t="shared" si="0"/>
+        <v>3.8199999999999998E-2</v>
+      </c>
+      <c r="I37" s="13">
+        <f t="shared" si="0"/>
+        <v>1.3999999999991797E-4</v>
+      </c>
+      <c r="J37" s="13">
+        <f t="shared" si="0"/>
+        <v>1.2999999999999123E-4</v>
+      </c>
+      <c r="K37" s="13">
+        <f t="shared" si="0"/>
+        <v>-2.7000000000002022E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" s="12">
+        <v>339.697</v>
+      </c>
+      <c r="C38" s="13">
+        <f t="shared" ref="C38:K38" si="1">C21-C5</f>
+        <v>3.7039999999999962E-2</v>
+      </c>
+      <c r="D38" s="13">
+        <f t="shared" si="1"/>
+        <v>-7.167999999999998E-2</v>
+      </c>
+      <c r="E38" s="13">
+        <f t="shared" si="1"/>
+        <v>3.4640000000000004E-2</v>
+      </c>
+      <c r="F38" s="13">
+        <f t="shared" si="1"/>
+        <v>0.1261000000000001</v>
+      </c>
+      <c r="G38" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.17392000000000002</v>
+      </c>
+      <c r="H38" s="13">
+        <f t="shared" si="1"/>
+        <v>4.6899999999999983E-2</v>
+      </c>
+      <c r="I38" s="13">
+        <f t="shared" si="1"/>
+        <v>1.300000000000745E-4</v>
+      </c>
+      <c r="J38" s="13">
+        <f t="shared" si="1"/>
+        <v>-2.1000000000001573E-4</v>
+      </c>
+      <c r="K38" s="13">
+        <f t="shared" si="1"/>
+        <v>7.999999999999674E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" s="12">
+        <v>945.76700000000005</v>
+      </c>
+      <c r="C39" s="13">
+        <f t="shared" ref="C39:K39" si="2">C22-C6</f>
+        <v>4.4499999999999984E-2</v>
+      </c>
+      <c r="D39" s="13">
+        <f t="shared" si="2"/>
+        <v>-5.4569999999999994E-2</v>
+      </c>
+      <c r="E39" s="13">
+        <f t="shared" si="2"/>
+        <v>1.0099999999999998E-2</v>
+      </c>
+      <c r="F39" s="13">
+        <f t="shared" si="2"/>
+        <v>8.5690000000000044E-2</v>
+      </c>
+      <c r="G39" s="13">
+        <f t="shared" si="2"/>
+        <v>-0.12009</v>
+      </c>
+      <c r="H39" s="13">
+        <f t="shared" si="2"/>
+        <v>3.44E-2</v>
+      </c>
+      <c r="I39" s="13">
+        <f t="shared" si="2"/>
+        <v>3.0000000000007798E-4</v>
+      </c>
+      <c r="J39" s="13">
+        <f t="shared" si="2"/>
+        <v>3.9999999999999758E-4</v>
+      </c>
+      <c r="K39" s="13">
+        <f t="shared" si="2"/>
+        <v>4.0000000000001146E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" s="12"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="12">
+        <v>302.202</v>
+      </c>
+      <c r="C42" s="13">
+        <f t="shared" ref="C42:K42" si="3">C25-C9</f>
+        <v>3.7120000000000042E-2</v>
+      </c>
+      <c r="D42" s="13">
+        <f t="shared" si="3"/>
+        <v>-5.821999999999998E-2</v>
+      </c>
+      <c r="E42" s="13">
+        <f t="shared" si="3"/>
+        <v>2.0099999999999993E-2</v>
+      </c>
+      <c r="F42" s="13">
+        <f t="shared" si="3"/>
+        <v>9.8530000000000006E-2</v>
+      </c>
+      <c r="G42" s="13">
+        <f t="shared" si="3"/>
+        <v>-0.11935000000000004</v>
+      </c>
+      <c r="H42" s="13">
+        <f t="shared" si="3"/>
+        <v>2.0899999999999988E-2</v>
+      </c>
+      <c r="I42" s="13">
+        <f t="shared" si="3"/>
+        <v>3.9000000000000146E-4</v>
+      </c>
+      <c r="J42" s="13">
+        <f t="shared" si="3"/>
+        <v>4.5000000000000595E-4</v>
+      </c>
+      <c r="K42" s="13">
+        <f t="shared" si="3"/>
+        <v>1.5999999999999348E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="12">
+        <v>420.86799999999999</v>
+      </c>
+      <c r="C43" s="13">
+        <f t="shared" ref="C43:K43" si="4">C26-C10</f>
+        <v>6.1709999999999932E-2</v>
+      </c>
+      <c r="D43" s="13">
+        <f t="shared" si="4"/>
+        <v>-8.0539999999999987E-2</v>
+      </c>
+      <c r="E43" s="13">
+        <f t="shared" si="4"/>
+        <v>1.8829999999999986E-2</v>
+      </c>
+      <c r="F43" s="13">
+        <f t="shared" si="4"/>
+        <v>8.6550000000000016E-2</v>
+      </c>
+      <c r="G43" s="13">
+        <f t="shared" si="4"/>
+        <v>-0.12198999999999996</v>
+      </c>
+      <c r="H43" s="13">
+        <f t="shared" si="4"/>
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="I43" s="13">
+        <f t="shared" si="4"/>
+        <v>-1.7000000000000348E-4</v>
+      </c>
+      <c r="J43" s="13">
+        <f t="shared" si="4"/>
+        <v>-9.9999999999988987E-5</v>
+      </c>
+      <c r="K43" s="13">
+        <f t="shared" si="4"/>
+        <v>2.8000000000000247E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="12">
+        <v>42.860999999999997</v>
+      </c>
+      <c r="C44" s="13">
+        <f t="shared" ref="C44:K44" si="5">C27-C11</f>
+        <v>5.1080000000000014E-2</v>
+      </c>
+      <c r="D44" s="13">
+        <f t="shared" si="5"/>
+        <v>-6.4690000000000025E-2</v>
+      </c>
+      <c r="E44" s="13">
+        <f t="shared" si="5"/>
+        <v>1.4609999999999984E-2</v>
+      </c>
+      <c r="F44" s="13">
+        <f t="shared" si="5"/>
+        <v>5.708000000000002E-2</v>
+      </c>
+      <c r="G44" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.10203999999999996</v>
+      </c>
+      <c r="H44" s="13">
+        <f t="shared" si="5"/>
+        <v>4.4960000000000014E-2</v>
+      </c>
+      <c r="I44" s="13">
+        <f t="shared" si="5"/>
+        <v>4.9999999999994493E-5</v>
+      </c>
+      <c r="J44" s="13">
+        <f t="shared" si="5"/>
+        <v>-2.5000000000000022E-4</v>
+      </c>
+      <c r="K44" s="13">
+        <f t="shared" si="5"/>
+        <v>1.9999999999999185E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="12">
+        <v>110.05</v>
+      </c>
+      <c r="C45" s="13">
+        <f t="shared" ref="C45:K45" si="6">C28-C12</f>
+        <v>4.436999999999991E-2</v>
+      </c>
+      <c r="D45" s="13">
+        <f t="shared" si="6"/>
+        <v>-4.8619999999999983E-2</v>
+      </c>
+      <c r="E45" s="13">
+        <f t="shared" si="6"/>
+        <v>4.2399999999999938E-3</v>
+      </c>
+      <c r="F45" s="13">
+        <f t="shared" si="6"/>
+        <v>0.10194999999999999</v>
+      </c>
+      <c r="G45" s="13">
+        <f t="shared" si="6"/>
+        <v>-0.16284000000000001</v>
+      </c>
+      <c r="H45" s="13">
+        <f t="shared" si="6"/>
+        <v>6.090000000000001E-2</v>
+      </c>
+      <c r="I45" s="13">
+        <f t="shared" si="6"/>
+        <v>4.5999999999990493E-4</v>
+      </c>
+      <c r="J45" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="13">
+        <f t="shared" si="6"/>
+        <v>-3.9999999999999758E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="12">
+        <v>175.66399999999999</v>
+      </c>
+      <c r="C46" s="13">
+        <f t="shared" ref="C46:K46" si="7">C29-C13</f>
+        <v>4.9170000000000047E-2</v>
+      </c>
+      <c r="D46" s="13">
+        <f t="shared" si="7"/>
+        <v>-7.7259999999999981E-2</v>
+      </c>
+      <c r="E46" s="13">
+        <f t="shared" si="7"/>
+        <v>2.8090000000000004E-2</v>
+      </c>
+      <c r="F46" s="13">
+        <f t="shared" si="7"/>
+        <v>0.13958999999999999</v>
+      </c>
+      <c r="G46" s="13">
+        <f t="shared" si="7"/>
+        <v>-0.17976000000000003</v>
+      </c>
+      <c r="H46" s="13">
+        <f t="shared" si="7"/>
+        <v>4.02E-2</v>
+      </c>
+      <c r="I46" s="13">
+        <f t="shared" si="7"/>
+        <v>-8.0000000000080007E-5</v>
+      </c>
+      <c r="J46" s="13">
+        <f t="shared" si="7"/>
+        <v>9.9999999999988987E-5</v>
+      </c>
+      <c r="K46" s="13">
+        <f t="shared" si="7"/>
+        <v>1.0000000000010001E-5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="12">
+        <v>923.35400000000004</v>
+      </c>
+      <c r="C47" s="13">
+        <f t="shared" ref="C47:K47" si="8">C30-C14</f>
+        <v>3.4679999999999822E-2</v>
+      </c>
+      <c r="D47" s="13">
+        <f t="shared" si="8"/>
+        <v>-6.0130000000000003E-2</v>
+      </c>
+      <c r="E47" s="13">
+        <f t="shared" si="8"/>
+        <v>2.5459999999999983E-2</v>
+      </c>
+      <c r="F47" s="13">
+        <f t="shared" si="8"/>
+        <v>0.12224999999999997</v>
+      </c>
+      <c r="G47" s="13">
+        <f t="shared" si="8"/>
+        <v>-0.16338</v>
+      </c>
+      <c r="H47" s="13">
+        <f t="shared" si="8"/>
+        <v>4.1200000000000001E-2</v>
+      </c>
+      <c r="I47" s="13">
+        <f t="shared" si="8"/>
+        <v>-2.9000000000001247E-4</v>
+      </c>
+      <c r="J47" s="13">
+        <f t="shared" si="8"/>
+        <v>1.3999999999998736E-4</v>
+      </c>
+      <c r="K47" s="13">
+        <f t="shared" si="8"/>
+        <v>1.5999999999999348E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="17">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A31:K31"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
   </mergeCells>
+  <conditionalFormatting sqref="C37:H39 C42:H47">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>